--- a/vt.xlsx
+++ b/vt.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hojun\Desktop\UVA\6th sem\CS 4750\FootballDatabase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="422">
   <si>
     <t>No</t>
   </si>
@@ -1274,17 +1279,25 @@
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1292,8 +1305,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1305,7 +1325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1328,13 +1348,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1343,6 +1377,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1389,7 +1431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1421,9 +1463,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1455,6 +1515,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1630,14 +1708,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J118" sqref="A2:J118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,8 +1742,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1691,8 +1774,11 @@
       <c r="I2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1720,8 +1806,11 @@
       <c r="I3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1749,8 +1838,11 @@
       <c r="I4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1778,8 +1870,11 @@
       <c r="I5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1807,8 +1902,11 @@
       <c r="I6" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1836,8 +1934,11 @@
       <c r="I7" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1865,8 +1966,11 @@
       <c r="I8" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1894,8 +1998,11 @@
       <c r="I9" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1923,8 +2030,11 @@
       <c r="I10" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1952,8 +2062,11 @@
       <c r="I11" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1981,8 +2094,11 @@
       <c r="I12" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2010,8 +2126,11 @@
       <c r="I13" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2039,8 +2158,11 @@
       <c r="I14" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2068,8 +2190,11 @@
       <c r="I15" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2097,8 +2222,11 @@
       <c r="I16" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2126,8 +2254,11 @@
       <c r="I17" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2155,8 +2286,11 @@
       <c r="I18" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2184,8 +2318,11 @@
       <c r="I19" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2213,8 +2350,11 @@
       <c r="I20" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2242,8 +2382,11 @@
       <c r="I21" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2271,8 +2414,11 @@
       <c r="I22" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2300,8 +2446,11 @@
       <c r="I23" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2329,8 +2478,11 @@
       <c r="I24" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2358,8 +2510,11 @@
       <c r="I25" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2387,8 +2542,11 @@
       <c r="I26" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2416,8 +2574,11 @@
       <c r="I27" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2445,8 +2606,11 @@
       <c r="I28" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2474,8 +2638,11 @@
       <c r="I29" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2503,8 +2670,11 @@
       <c r="I30" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2532,8 +2702,11 @@
       <c r="I31" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2561,8 +2734,11 @@
       <c r="I32" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2590,8 +2766,11 @@
       <c r="I33" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2619,8 +2798,11 @@
       <c r="I34" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2648,8 +2830,11 @@
       <c r="I35" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2677,8 +2862,11 @@
       <c r="I36" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2706,8 +2894,11 @@
       <c r="I37" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2735,8 +2926,11 @@
       <c r="I38" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2764,8 +2958,11 @@
       <c r="I39" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2793,8 +2990,11 @@
       <c r="I40" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2822,8 +3022,11 @@
       <c r="I41" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2851,8 +3054,11 @@
       <c r="I42" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2880,8 +3086,11 @@
       <c r="I43" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2909,8 +3118,11 @@
       <c r="I44" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2938,8 +3150,11 @@
       <c r="I45" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2967,8 +3182,11 @@
       <c r="I46" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2996,8 +3214,11 @@
       <c r="I47" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3025,8 +3246,11 @@
       <c r="I48" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3054,8 +3278,11 @@
       <c r="I49" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3083,8 +3310,11 @@
       <c r="I50" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3112,8 +3342,11 @@
       <c r="I51" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3141,8 +3374,11 @@
       <c r="I52" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3170,8 +3406,11 @@
       <c r="I53" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3199,8 +3438,11 @@
       <c r="I54" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3228,8 +3470,11 @@
       <c r="I55" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3257,8 +3502,11 @@
       <c r="I56" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3286,8 +3534,11 @@
       <c r="I57" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3315,8 +3566,11 @@
       <c r="I58" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3344,8 +3598,11 @@
       <c r="I59" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3373,8 +3630,11 @@
       <c r="I60" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3402,8 +3662,11 @@
       <c r="I61" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3431,8 +3694,11 @@
       <c r="I62" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3460,8 +3726,11 @@
       <c r="I63" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3489,8 +3758,11 @@
       <c r="I64" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3518,8 +3790,11 @@
       <c r="I65" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3547,8 +3822,11 @@
       <c r="I66" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3576,8 +3854,11 @@
       <c r="I67" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3605,8 +3886,11 @@
       <c r="I68" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3634,8 +3918,11 @@
       <c r="I69" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3663,8 +3950,11 @@
       <c r="I70" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3692,8 +3982,11 @@
       <c r="I71" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3721,8 +4014,11 @@
       <c r="I72" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3750,8 +4046,11 @@
       <c r="I73" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3779,8 +4078,11 @@
       <c r="I74" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3808,8 +4110,11 @@
       <c r="I75" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3837,8 +4142,11 @@
       <c r="I76" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3866,8 +4174,11 @@
       <c r="I77" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3895,8 +4206,11 @@
       <c r="I78" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3924,8 +4238,11 @@
       <c r="I79" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3953,8 +4270,11 @@
       <c r="I80" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3982,8 +4302,11 @@
       <c r="I81" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4011,8 +4334,11 @@
       <c r="I82" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4040,8 +4366,11 @@
       <c r="I83" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4069,8 +4398,11 @@
       <c r="I84" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4098,8 +4430,11 @@
       <c r="I85" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4127,8 +4462,11 @@
       <c r="I86" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4156,8 +4494,11 @@
       <c r="I87" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4185,8 +4526,11 @@
       <c r="I88" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4214,8 +4558,11 @@
       <c r="I89" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4243,8 +4590,11 @@
       <c r="I90" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4272,8 +4622,11 @@
       <c r="I91" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4301,8 +4654,11 @@
       <c r="I92" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4330,8 +4686,11 @@
       <c r="I93" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4359,8 +4718,11 @@
       <c r="I94" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4388,8 +4750,11 @@
       <c r="I95" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4417,8 +4782,11 @@
       <c r="I96" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4446,8 +4814,11 @@
       <c r="I97" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4475,8 +4846,11 @@
       <c r="I98" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4504,8 +4878,11 @@
       <c r="I99" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4533,8 +4910,11 @@
       <c r="I100" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4562,8 +4942,11 @@
       <c r="I101" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4591,8 +4974,11 @@
       <c r="I102" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4620,8 +5006,11 @@
       <c r="I103" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4649,8 +5038,11 @@
       <c r="I104" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4678,8 +5070,11 @@
       <c r="I105" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4707,8 +5102,11 @@
       <c r="I106" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4736,8 +5134,11 @@
       <c r="I107" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4765,8 +5166,11 @@
       <c r="I108" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4794,8 +5198,11 @@
       <c r="I109" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4823,8 +5230,11 @@
       <c r="I110" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4852,8 +5262,11 @@
       <c r="I111" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4881,8 +5294,11 @@
       <c r="I112" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4910,8 +5326,11 @@
       <c r="I113" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4939,8 +5358,11 @@
       <c r="I114" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4968,8 +5390,11 @@
       <c r="I115" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4997,8 +5422,11 @@
       <c r="I116" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5026,8 +5454,11 @@
       <c r="I117" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5055,8 +5486,12 @@
       <c r="I118" t="s">
         <v>406</v>
       </c>
+      <c r="J118" t="s">
+        <v>421</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vt.xlsx
+++ b/vt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="423">
   <si>
     <t>No</t>
   </si>
@@ -1286,6 +1286,10 @@
   </si>
   <si>
     <t>VT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1709,15 +1713,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J118" sqref="A2:J118"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1745,8 +1749,11 @@
       <c r="J1" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1777,8 +1784,11 @@
       <c r="J2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1809,8 +1819,11 @@
       <c r="J3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1841,8 +1854,11 @@
       <c r="J4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1873,8 +1889,11 @@
       <c r="J5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1905,8 +1924,11 @@
       <c r="J6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1937,8 +1959,11 @@
       <c r="J7" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1969,8 +1994,11 @@
       <c r="J8" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2001,8 +2029,11 @@
       <c r="J9" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2033,8 +2064,11 @@
       <c r="J10" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2065,8 +2099,11 @@
       <c r="J11" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2097,8 +2134,11 @@
       <c r="J12" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2129,8 +2169,11 @@
       <c r="J13" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2161,8 +2204,11 @@
       <c r="J14" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2193,8 +2239,11 @@
       <c r="J15" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2225,8 +2274,11 @@
       <c r="J16" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2257,8 +2309,11 @@
       <c r="J17" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2289,8 +2344,11 @@
       <c r="J18" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2321,8 +2379,11 @@
       <c r="J19" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2353,8 +2414,11 @@
       <c r="J20" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2385,8 +2449,11 @@
       <c r="J21" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2417,8 +2484,11 @@
       <c r="J22" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2449,8 +2519,11 @@
       <c r="J23" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2481,8 +2554,11 @@
       <c r="J24" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2513,8 +2589,11 @@
       <c r="J25" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2545,8 +2624,11 @@
       <c r="J26" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2577,8 +2659,11 @@
       <c r="J27" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2609,8 +2694,11 @@
       <c r="J28" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2641,8 +2729,11 @@
       <c r="J29" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2673,8 +2764,11 @@
       <c r="J30" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2705,8 +2799,11 @@
       <c r="J31" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2737,8 +2834,11 @@
       <c r="J32" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2769,8 +2869,11 @@
       <c r="J33" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K33">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2801,8 +2904,11 @@
       <c r="J34" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K34">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2833,8 +2939,11 @@
       <c r="J35" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K35">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2865,8 +2974,11 @@
       <c r="J36" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2897,8 +3009,11 @@
       <c r="J37" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2929,8 +3044,11 @@
       <c r="J38" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K38">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2961,8 +3079,11 @@
       <c r="J39" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K39">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2993,8 +3114,11 @@
       <c r="J40" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K40">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3025,8 +3149,11 @@
       <c r="J41" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K41">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3057,8 +3184,11 @@
       <c r="J42" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K42">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3089,8 +3219,11 @@
       <c r="J43" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K43">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3121,8 +3254,11 @@
       <c r="J44" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K44">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3153,8 +3289,11 @@
       <c r="J45" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K45">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3185,8 +3324,11 @@
       <c r="J46" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K46">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3217,8 +3359,11 @@
       <c r="J47" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K47">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3249,8 +3394,11 @@
       <c r="J48" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K48">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3281,8 +3429,11 @@
       <c r="J49" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K49">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3313,8 +3464,11 @@
       <c r="J50" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K50">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3345,8 +3499,11 @@
       <c r="J51" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3377,8 +3534,11 @@
       <c r="J52" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K52">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3409,8 +3569,11 @@
       <c r="J53" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K53">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3441,8 +3604,11 @@
       <c r="J54" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K54">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3473,8 +3639,11 @@
       <c r="J55" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K55">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3505,8 +3674,11 @@
       <c r="J56" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K56">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3537,8 +3709,11 @@
       <c r="J57" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K57">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3569,8 +3744,11 @@
       <c r="J58" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K58">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3601,8 +3779,11 @@
       <c r="J59" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K59">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3633,8 +3814,11 @@
       <c r="J60" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K60">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3665,8 +3849,11 @@
       <c r="J61" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K61">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3697,8 +3884,11 @@
       <c r="J62" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K62">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3729,8 +3919,11 @@
       <c r="J63" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K63">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3761,8 +3954,11 @@
       <c r="J64" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K64">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3793,8 +3989,11 @@
       <c r="J65" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K65">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3825,8 +4024,11 @@
       <c r="J66" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K66">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3857,8 +4059,11 @@
       <c r="J67" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K67">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3889,8 +4094,11 @@
       <c r="J68" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K68">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3921,8 +4129,11 @@
       <c r="J69" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K69">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3953,8 +4164,11 @@
       <c r="J70" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K70">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3985,8 +4199,11 @@
       <c r="J71" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K71">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4017,8 +4234,11 @@
       <c r="J72" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K72">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4049,8 +4269,11 @@
       <c r="J73" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K73">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4081,8 +4304,11 @@
       <c r="J74" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K74">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4113,8 +4339,11 @@
       <c r="J75" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K75">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4145,8 +4374,11 @@
       <c r="J76" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K76">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4177,8 +4409,11 @@
       <c r="J77" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K77">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4209,8 +4444,11 @@
       <c r="J78" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K78">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4241,8 +4479,11 @@
       <c r="J79" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K79">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4273,8 +4514,11 @@
       <c r="J80" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K80">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4305,8 +4549,11 @@
       <c r="J81" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K81">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4337,8 +4584,11 @@
       <c r="J82" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K82">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4369,8 +4619,11 @@
       <c r="J83" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K83">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4401,8 +4654,11 @@
       <c r="J84" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K84">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4433,8 +4689,11 @@
       <c r="J85" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K85">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4465,8 +4724,11 @@
       <c r="J86" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K86">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4497,8 +4759,11 @@
       <c r="J87" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K87">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4529,8 +4794,11 @@
       <c r="J88" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K88">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4561,8 +4829,11 @@
       <c r="J89" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K89">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4593,8 +4864,11 @@
       <c r="J90" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K90">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4625,8 +4899,11 @@
       <c r="J91" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K91">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4657,8 +4934,11 @@
       <c r="J92" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K92">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4689,8 +4969,11 @@
       <c r="J93" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K93">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4721,8 +5004,11 @@
       <c r="J94" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K94">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4753,8 +5039,11 @@
       <c r="J95" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K95">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4785,8 +5074,11 @@
       <c r="J96" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K96">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4817,8 +5109,11 @@
       <c r="J97" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K97">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4849,8 +5144,11 @@
       <c r="J98" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K98">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4881,8 +5179,11 @@
       <c r="J99" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K99">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4913,8 +5214,11 @@
       <c r="J100" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K100">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4945,8 +5249,11 @@
       <c r="J101" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K101">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4977,8 +5284,11 @@
       <c r="J102" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K102">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5009,8 +5319,11 @@
       <c r="J103" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K103">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5041,8 +5354,11 @@
       <c r="J104" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K104">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5073,8 +5389,11 @@
       <c r="J105" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K105">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5105,8 +5424,11 @@
       <c r="J106" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K106">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5137,8 +5459,11 @@
       <c r="J107" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K107">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5169,8 +5494,11 @@
       <c r="J108" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K108">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5201,8 +5529,11 @@
       <c r="J109" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K109">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5233,8 +5564,11 @@
       <c r="J110" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K110">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5265,8 +5599,11 @@
       <c r="J111" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K111">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5297,8 +5634,11 @@
       <c r="J112" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K112">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5329,8 +5669,11 @@
       <c r="J113" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K113">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5361,8 +5704,11 @@
       <c r="J114" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K114">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5393,8 +5739,11 @@
       <c r="J115" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K115">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5425,8 +5774,11 @@
       <c r="J116" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K116">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5457,8 +5809,11 @@
       <c r="J117" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K117">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5488,6 +5843,9 @@
       </c>
       <c r="J118" t="s">
         <v>421</v>
+      </c>
+      <c r="K118">
+        <v>2117</v>
       </c>
     </row>
   </sheetData>
